--- a/Barrios_Recodificado.xlsx
+++ b/Barrios_Recodificado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Documents\Trabajos Propios\OMI\Tablero-OMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Documents\Trabajos Propios\Urbano\OMI\Tablero-OMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="201">
   <si>
     <t>Recoleta, Capital Federal</t>
   </si>
@@ -472,13 +472,163 @@
   </si>
   <si>
     <t>Naón, Mataderos</t>
+  </si>
+  <si>
+    <t>Barrio_geopy</t>
+  </si>
+  <si>
+    <t>Almagro</t>
+  </si>
+  <si>
+    <t>Agronomia</t>
+  </si>
+  <si>
+    <t>Balvanera</t>
+  </si>
+  <si>
+    <t>Barracas</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Boedo</t>
+  </si>
+  <si>
+    <t>Caballito</t>
+  </si>
+  <si>
+    <t>San Nicolas</t>
+  </si>
+  <si>
+    <t>Chacarita</t>
+  </si>
+  <si>
+    <t>Coghlan</t>
+  </si>
+  <si>
+    <t>Colegiales</t>
+  </si>
+  <si>
+    <t>Monserrat</t>
+  </si>
+  <si>
+    <t>Constitucion</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
+    <t>Paternal</t>
+  </si>
+  <si>
+    <t>Liniers</t>
+  </si>
+  <si>
+    <t>Nunez</t>
+  </si>
+  <si>
+    <t>Mataderos</t>
+  </si>
+  <si>
+    <t>Monte Castro</t>
+  </si>
+  <si>
+    <t>Parque Chacabuco</t>
+  </si>
+  <si>
+    <t>Parque Chas</t>
+  </si>
+  <si>
+    <t>Parque Patricios</t>
+  </si>
+  <si>
+    <t>Nueva Pompeya</t>
+  </si>
+  <si>
+    <t>Puerto Madero</t>
+  </si>
+  <si>
+    <t>Saavedra</t>
+  </si>
+  <si>
+    <t>San Cristobal</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Villa Crespo</t>
+  </si>
+  <si>
+    <t>Villa Del Parque</t>
+  </si>
+  <si>
+    <t>Villa Devoto</t>
+  </si>
+  <si>
+    <t>Villa Lugano</t>
+  </si>
+  <si>
+    <t>Villa Luro</t>
+  </si>
+  <si>
+    <t>Villa Ortuzar</t>
+  </si>
+  <si>
+    <t>Villa Pueyrredon</t>
+  </si>
+  <si>
+    <t>Villa Santa Rita</t>
+  </si>
+  <si>
+    <t>Villa Urquiza</t>
+  </si>
+  <si>
+    <t>Villa Real</t>
+  </si>
+  <si>
+    <t>Villa Gral. Mitre</t>
+  </si>
+  <si>
+    <t>Parque Avellaneda</t>
+  </si>
+  <si>
+    <t>Villa Riachuelo</t>
+  </si>
+  <si>
+    <t>Villa Soldati</t>
+  </si>
+  <si>
+    <t>Versalles</t>
+  </si>
+  <si>
+    <t>Nuñez</t>
+  </si>
+  <si>
+    <t>Boca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +762,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -955,9 +1111,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,9 +1447,10 @@
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1305,8 +1463,11 @@
       <c r="D1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1319,8 +1480,11 @@
       <c r="D2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1333,8 +1497,11 @@
       <c r="D3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1347,8 +1514,11 @@
       <c r="D4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1361,8 +1531,11 @@
       <c r="D5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1375,8 +1548,11 @@
       <c r="D6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -1389,8 +1565,11 @@
       <c r="D7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1403,8 +1582,11 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1417,8 +1599,11 @@
       <c r="D9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1431,8 +1616,11 @@
       <c r="D10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1445,8 +1633,11 @@
       <c r="D11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1650,11 @@
       <c r="D12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1473,8 +1667,11 @@
       <c r="D13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1487,8 +1684,11 @@
       <c r="D14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1501,8 +1701,11 @@
       <c r="D15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1515,8 +1718,11 @@
       <c r="D16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1529,8 +1735,11 @@
       <c r="D17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +1752,11 @@
       <c r="D18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1557,8 +1769,11 @@
       <c r="D19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1571,8 +1786,11 @@
       <c r="D20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1585,8 +1803,11 @@
       <c r="D21" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1599,8 +1820,11 @@
       <c r="D22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1613,8 +1837,11 @@
       <c r="D23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -1627,8 +1854,11 @@
       <c r="D24" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1641,8 +1871,11 @@
       <c r="D25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1655,8 +1888,11 @@
       <c r="D26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1669,8 +1905,11 @@
       <c r="D27" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1683,8 +1922,11 @@
       <c r="D28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1697,8 +1939,11 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -1711,8 +1956,11 @@
       <c r="D30" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1725,8 +1973,11 @@
       <c r="D31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -1739,8 +1990,11 @@
       <c r="D32" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1753,8 +2007,11 @@
       <c r="D33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1767,8 +2024,11 @@
       <c r="D34" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1781,8 +2041,11 @@
       <c r="D35" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -1795,8 +2058,11 @@
       <c r="D36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1809,8 +2075,11 @@
       <c r="D37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1823,8 +2092,11 @@
       <c r="D38" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1837,8 +2109,11 @@
       <c r="D39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1851,8 +2126,11 @@
       <c r="D40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1865,8 +2143,11 @@
       <c r="D41" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1879,8 +2160,11 @@
       <c r="D42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1893,8 +2177,11 @@
       <c r="D43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1907,8 +2194,11 @@
       <c r="D44" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1921,8 +2211,11 @@
       <c r="D45" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +2228,11 @@
       <c r="D46" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1949,8 +2245,11 @@
       <c r="D47" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1963,8 +2262,11 @@
       <c r="D48" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1977,8 +2279,11 @@
       <c r="D49" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1991,8 +2296,11 @@
       <c r="D50" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2005,8 +2313,11 @@
       <c r="D51" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2019,8 +2330,11 @@
       <c r="D52" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2033,8 +2347,11 @@
       <c r="D53" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -2047,8 +2364,11 @@
       <c r="D54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2061,8 +2381,11 @@
       <c r="D55" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2075,8 +2398,11 @@
       <c r="D56" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2089,8 +2415,11 @@
       <c r="D57" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -2103,8 +2432,11 @@
       <c r="D58" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -2117,8 +2449,11 @@
       <c r="D59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2131,8 +2466,11 @@
       <c r="D60" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -2145,8 +2483,11 @@
       <c r="D61" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2159,8 +2500,11 @@
       <c r="D62" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2173,8 +2517,11 @@
       <c r="D63" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -2187,8 +2534,11 @@
       <c r="D64" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2201,8 +2551,11 @@
       <c r="D65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2215,8 +2568,11 @@
       <c r="D66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -2229,8 +2585,11 @@
       <c r="D67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2243,8 +2602,11 @@
       <c r="D68" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -2257,8 +2619,11 @@
       <c r="D69" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -2271,8 +2636,11 @@
       <c r="D70" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -2285,8 +2653,11 @@
       <c r="D71" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>127</v>
       </c>
@@ -2296,8 +2667,11 @@
       <c r="D72" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -2310,8 +2684,11 @@
       <c r="D73" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -2324,8 +2701,11 @@
       <c r="D74" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>130</v>
       </c>
@@ -2335,8 +2715,11 @@
       <c r="D75" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -2349,8 +2732,11 @@
       <c r="D76" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -2363,8 +2749,11 @@
       <c r="D77" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -2377,8 +2766,11 @@
       <c r="D78" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -2391,8 +2783,11 @@
       <c r="D79" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -2405,8 +2800,11 @@
       <c r="D80" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -2419,8 +2817,11 @@
       <c r="D81" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -2433,8 +2834,11 @@
       <c r="D82" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -2447,8 +2851,11 @@
       <c r="D83" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -2461,8 +2868,11 @@
       <c r="D84" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -2475,13 +2885,17 @@
       <c r="D85" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -2494,8 +2908,11 @@
       <c r="D87" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -2508,8 +2925,11 @@
       <c r="D88" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -2521,6 +2941,9 @@
       </c>
       <c r="D89" t="s">
         <v>117</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
